--- a/output.xlsx
+++ b/output.xlsx
@@ -863,7 +863,7 @@
         <v>1020</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>1321</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1041,7 +1041,7 @@
         <v>3116</v>
       </c>
       <c r="T7" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1130,7 +1130,7 @@
         <v>1994</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1308,7 +1308,7 @@
         <v>3054</v>
       </c>
       <c r="T10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1397,7 +1397,7 @@
         <v>2443</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1486,7 +1486,7 @@
         <v>4134</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>4423</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>2516</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1747,7 +1747,7 @@
         <v>6675</v>
       </c>
       <c r="T15" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1834,7 +1834,7 @@
         <v>5122</v>
       </c>
       <c r="T16" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1921,7 +1921,7 @@
         <v>1829</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>2887</v>
       </c>
       <c r="T18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>4876</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>6122</v>
       </c>
       <c r="T24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -2593,7 +2593,7 @@
         <v>2010</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>3669</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>4435</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>6327</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>4371</v>
       </c>
       <c r="T29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>7482</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3153,11 +3153,7 @@
           <t>Optho Surgeons</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>OR1</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>20</v>
       </c>
@@ -3195,9 +3191,7 @@
       <c r="S32" t="n">
         <v>1667</v>
       </c>
-      <c r="T32" t="n">
-        <v>5</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
         <v>0</v>
       </c>
@@ -3321,7 +3315,11 @@
           <t>Optho Surgeons</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>OR1</t>
+        </is>
+      </c>
       <c r="K34" t="n">
         <v>20</v>
       </c>
@@ -3359,7 +3357,9 @@
       <c r="S34" t="n">
         <v>2166</v>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4221</v>
       </c>
       <c r="T36" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
